--- a/MAESTRO DE PROYECTOS QA.xlsx
+++ b/MAESTRO DE PROYECTOS QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QA\DASHBOARD QA REPORTE DIARIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arivera_scb\OneDrive - Santander Office 365\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A940EE2-C923-4D80-9196-15753EB4F7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A74B94C-6A57-42D2-B56C-2BD9CC4A7E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="11260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proyectos" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Detalle_Pruebas" sheetId="5" r:id="rId3"/>
     <sheet name="Defectos" sheetId="6" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Detalle_Pruebas!$A$1:$I$222</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -73,8 +76,78 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Abraham Rivera</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{83788D14-3222-43EB-80DA-12903A351C3A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Abraham Rivera:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Crítica
+Alta
+Media
+Baja</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{F53EFC29-5A07-44C1-8932-02B8057154ED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Abraham Rivera:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Open
+Reject
+Assigned
+Under Review
+In Progress DEV
+Resolved
+ReTesting
+ReOpened
+Closed
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="500">
   <si>
     <t>proyecto_id</t>
   </si>
@@ -127,9 +200,6 @@
     <t>estado</t>
   </si>
   <si>
-    <t>duracion_minutos</t>
-  </si>
-  <si>
     <t>ejecutor</t>
   </si>
   <si>
@@ -172,12 +242,6 @@
     <t>Julio Lazo</t>
   </si>
   <si>
-    <t>Building Block - Core Primera Etapa - Funcionalidades Bantotal (9 Ots)</t>
-  </si>
-  <si>
-    <t>Funcionalidades Bantotal (9 Ots)</t>
-  </si>
-  <si>
     <t>DEV</t>
   </si>
   <si>
@@ -217,9 +281,6 @@
     <t>Dar de alta una persona jurídica y validar que en el panel de FATCA la primera consulta se inicialicen vacias y al dar continuar sin marcar nada en el panel, obligue a seleccionar una opción.</t>
   </si>
   <si>
-    <t>Dar de alta una persona jurídica y validar que en el panel de FATCA la segundaconsulta se inicialicen vacias y al dar continuar sin marcar nada en el panel, obligue a seleccionar una opción.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Dar de alta una persona jurídica no financiera y validar que en el panel de FATCA si selecciona pregunta 1 </t>
     </r>
@@ -2440,96 +2501,6 @@
     <t>Garantías</t>
   </si>
   <si>
-    <t>validar que el sistema permita generar un archivo de respaldo txt con todos los rubros y relaciones actuales</t>
-  </si>
-  <si>
-    <t>validarque el sistema permita generar un respaldo en xls con la estructura definida (codigo rubro, descripcion, modulo, imputabilidad y relaciones)</t>
-  </si>
-  <si>
-    <t>validar que el sis tema bloquee o solicite informacion si se intenta realizar cambios sin un respaldo actualizado</t>
-  </si>
-  <si>
-    <t>validar que el sistema permita crearun rubro exactamente con 16 digitos</t>
-  </si>
-  <si>
-    <t>validar que el sistema rechace la creación de rubros de menso de 16 digitos</t>
-  </si>
-  <si>
-    <t>validar que el rubro existente pueda actualizarce a 16 digitos con servando las relaciones previas</t>
-  </si>
-  <si>
-    <t>validar que los rubros marcados como 9% no sean considerados en la carga del plan de cuentas</t>
-  </si>
-  <si>
-    <t>validar que un rubro asociado a un modulo existente se registre correctamente</t>
-  </si>
-  <si>
-    <t>validar que un rubro asociado a un modulo inexistente sea reasignado a un modulo genérico</t>
-  </si>
-  <si>
-    <t>verificar que un rubro creado con modulo 0 sea reasignado automaticamente al modulo 500 "no imputables"</t>
-  </si>
-  <si>
-    <t>validar que todos los modulos cargados correspondan exactamente al Excel de referencia (FSD014)</t>
-  </si>
-  <si>
-    <t>validar que las relaciones de la tabla FSR014 se sustituyan correctamente con los nuevos rubros</t>
-  </si>
-  <si>
-    <t>validar que el sistema rechace la sustitución de relacionescuando el rubro no existe en el catalogo</t>
-  </si>
-  <si>
-    <t>validar que antes de generar la FSR014 todas las relaciones previas esten presentes en el sistema</t>
-  </si>
-  <si>
-    <t>validar que si faltan relaciones la generación de la FSR014 sea bloqueada y se muestren los faltantes</t>
-  </si>
-  <si>
-    <t>validar que al importar el archivo FSR014v1.xls se creen las relacionesde rubro de acuerdo al contenido del excel</t>
-  </si>
-  <si>
-    <t>validar que una segunda importacion del archivo no genere duplicidad en las relaciones</t>
-  </si>
-  <si>
-    <t>validar que la relacion entre los rubros 21120101XX y 21220101XX se registre correctamente</t>
-  </si>
-  <si>
-    <t>validar que la relacion entre los rubros 21130501XX y 21230501XX se registre correctamente</t>
-  </si>
-  <si>
-    <t>validar que la relacion entre los rubros 21130502XX y 21230502XX se registre correctamente</t>
-  </si>
-  <si>
-    <t>validar que el rubro de referencia 21211501010101 pueda utilizarse correctament en las relaciones de capital</t>
-  </si>
-  <si>
-    <t>validar que el rubro de referencia 21130301010100 pueda utilizarse correctament como referencia valida en las relaciones DPF sin generar conflicto</t>
-  </si>
-  <si>
-    <t>validar que no se permita la creación de relaciones DPF con rubros inexistentes</t>
-  </si>
-  <si>
-    <t>validar que para prestamos se utilicen correctamente los rubros  de la columna G del archivo excel de referencia</t>
-  </si>
-  <si>
-    <t>validar que si la columna G o de referencia este vacia o con formato incorrecto el sistema rechace la importacion</t>
-  </si>
-  <si>
-    <t>validar que no existan duplicados en los rubros de 16 digitos</t>
-  </si>
-  <si>
-    <t>validar la consistencia entre rubros y modulos, incluyendo la reasignacion de modulo 0 a 500</t>
-  </si>
-  <si>
-    <t>validar que existan relaciones huerfanas  en la FSR014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validar la reastauracion completa en formato txt y xls del plan de cuentas y tengan la fecha correcta </t>
-  </si>
-  <si>
-    <t>Contabilidad</t>
-  </si>
-  <si>
     <t>TC-001</t>
   </si>
   <si>
@@ -3190,102 +3161,12 @@
     <t>TC-220</t>
   </si>
   <si>
-    <t>TC-221</t>
-  </si>
-  <si>
-    <t>TC-222</t>
-  </si>
-  <si>
-    <t>TC-223</t>
-  </si>
-  <si>
-    <t>TC-224</t>
-  </si>
-  <si>
-    <t>TC-225</t>
-  </si>
-  <si>
-    <t>TC-226</t>
-  </si>
-  <si>
-    <t>TC-227</t>
-  </si>
-  <si>
-    <t>TC-228</t>
-  </si>
-  <si>
-    <t>TC-229</t>
-  </si>
-  <si>
-    <t>TC-230</t>
-  </si>
-  <si>
-    <t>TC-231</t>
-  </si>
-  <si>
-    <t>TC-232</t>
-  </si>
-  <si>
-    <t>TC-233</t>
-  </si>
-  <si>
-    <t>TC-234</t>
-  </si>
-  <si>
-    <t>TC-235</t>
-  </si>
-  <si>
-    <t>TC-236</t>
-  </si>
-  <si>
-    <t>TC-237</t>
-  </si>
-  <si>
-    <t>TC-238</t>
-  </si>
-  <si>
-    <t>TC-239</t>
-  </si>
-  <si>
-    <t>TC-240</t>
-  </si>
-  <si>
-    <t>TC-241</t>
-  </si>
-  <si>
-    <t>TC-242</t>
-  </si>
-  <si>
-    <t>TC-243</t>
-  </si>
-  <si>
-    <t>TC-244</t>
-  </si>
-  <si>
-    <t>TC-245</t>
-  </si>
-  <si>
-    <t>TC-246</t>
-  </si>
-  <si>
-    <t>TC-247</t>
-  </si>
-  <si>
-    <t>TC-248</t>
-  </si>
-  <si>
-    <t>TC-249</t>
-  </si>
-  <si>
     <t>BB-CORE-1</t>
   </si>
   <si>
     <t>BB-CORE-2</t>
   </si>
   <si>
-    <t>Building Block - Core Primera Etapa - Funcionalidades Bantotal (6 Ots)</t>
-  </si>
-  <si>
     <t>31/10/205</t>
   </si>
   <si>
@@ -3296,6 +3177,51 @@
   </si>
   <si>
     <t>escenario</t>
+  </si>
+  <si>
+    <t>Exitosa</t>
+  </si>
+  <si>
+    <t>Dar de alta una persona jurídica y validar que en el panel de FATCA la segunda consulta se inicialicen vacias y al dar continuar sin marcar nada en el panel, obligue a seleccionar una opción.</t>
+  </si>
+  <si>
+    <t>Fallida</t>
+  </si>
+  <si>
+    <t>DEF-0001</t>
+  </si>
+  <si>
+    <t>Continua con el flujo, sin indicar que la 2da pregunta sea obligatoria. Al dejar la segunda pregunta vacía no debería permitir continuar con el flujo</t>
+  </si>
+  <si>
+    <t>Se puede avanzar el flujo a pesar de restricción</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Julio Palomino</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>CORE - Primera Entrega Bantotal - 8 Ots</t>
+  </si>
+  <si>
+    <t>CORE - Segunda Entrega Bantotal - 6 Ots</t>
+  </si>
+  <si>
+    <t>Funcionalidades Bantotal (8 Ots)</t>
+  </si>
+  <si>
+    <t>Under Review</t>
+  </si>
+  <si>
+    <t>dia_ejecutado</t>
+  </si>
+  <si>
+    <t>7/10/2025  15:59</t>
   </si>
 </sst>
 </file>
@@ -3407,7 +3333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3433,6 +3359,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3774,8 +3701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3814,16 +3741,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>494</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1">
-        <v>45931</v>
+        <v>45936</v>
       </c>
       <c r="E2" s="1">
         <v>45961</v>
@@ -3832,21 +3759,21 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>543</v>
+        <v>480</v>
       </c>
       <c r="B3" t="s">
-        <v>544</v>
+        <v>495</v>
       </c>
       <c r="C3" t="s">
-        <v>547</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>545</v>
+        <v>481</v>
       </c>
       <c r="E3" s="1">
         <v>45989</v>
@@ -3855,7 +3782,7 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>546</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -3871,10 +3798,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3907,16 +3834,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B2" s="1">
-        <v>45931</v>
+        <v>45936</v>
       </c>
       <c r="C2" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
@@ -3930,19 +3857,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B3" s="1">
-        <v>45932</v>
+        <v>45937</v>
       </c>
       <c r="C3" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -3953,13 +3880,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B4" s="1">
-        <v>45933</v>
+        <v>45938</v>
       </c>
       <c r="C4" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -3976,13 +3903,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B5" s="1">
-        <v>45936</v>
+        <v>45939</v>
       </c>
       <c r="C5" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
@@ -3999,13 +3926,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B6" s="1">
-        <v>45937</v>
+        <v>45940</v>
       </c>
       <c r="C6" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
@@ -4022,13 +3949,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B7" s="1">
-        <v>45938</v>
+        <v>45943</v>
       </c>
       <c r="C7" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -4045,13 +3972,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B8" s="1">
-        <v>45939</v>
+        <v>45944</v>
       </c>
       <c r="C8" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -4068,13 +3995,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B9" s="1">
-        <v>45940</v>
+        <v>45945</v>
       </c>
       <c r="C9" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
@@ -4091,13 +4018,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B10" s="1">
-        <v>45943</v>
+        <v>45946</v>
       </c>
       <c r="C10" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -4114,13 +4041,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B11" s="1">
-        <v>45944</v>
+        <v>45947</v>
       </c>
       <c r="C11" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -4137,13 +4064,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B12" s="1">
-        <v>45945</v>
+        <v>45950</v>
       </c>
       <c r="C12" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
@@ -4160,13 +4087,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B13" s="1">
-        <v>45946</v>
+        <v>45951</v>
       </c>
       <c r="C13" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
@@ -4183,10 +4110,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B14" s="1">
-        <v>45947</v>
+        <v>45952</v>
       </c>
       <c r="C14" s="3">
         <v>11</v>
@@ -4206,10 +4133,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B15" s="1">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="C15" s="3">
         <v>11</v>
@@ -4229,10 +4156,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B16" s="1">
-        <v>45951</v>
+        <v>45954</v>
       </c>
       <c r="C16" s="3">
         <v>11</v>
@@ -4252,10 +4179,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B17" s="1">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="C17" s="3">
         <v>11</v>
@@ -4275,10 +4202,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B18" s="1">
-        <v>45953</v>
+        <v>45958</v>
       </c>
       <c r="C18" s="3">
         <v>11</v>
@@ -4298,10 +4225,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B19" s="1">
-        <v>45954</v>
+        <v>45959</v>
       </c>
       <c r="C19" s="3">
         <v>11</v>
@@ -4321,10 +4248,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B20" s="1">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="C20" s="3">
         <v>11</v>
@@ -4344,10 +4271,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B21" s="1">
-        <v>45958</v>
+        <v>45961</v>
       </c>
       <c r="C21" s="3">
         <v>11</v>
@@ -4367,76 +4294,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>542</v>
-      </c>
-      <c r="B22" s="1">
-        <v>45959</v>
-      </c>
-      <c r="C22" s="3">
-        <v>11</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>542</v>
-      </c>
-      <c r="B23" s="1">
-        <v>45960</v>
-      </c>
-      <c r="C23" s="3">
-        <v>11</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>542</v>
-      </c>
-      <c r="B24" s="1">
-        <v>45961</v>
-      </c>
-      <c r="C24" s="3">
-        <v>7</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>543</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -4450,10 +4308,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I251"/>
+  <dimension ref="A1:I222"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H251" sqref="A251:H251"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4464,7 +4322,7 @@
     <col min="4" max="4" width="225.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -4477,7 +4335,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>548</v>
+        <v>484</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
@@ -4486,5019 +4344,4069 @@
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45936</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>483</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>485</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45936</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>483</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>485</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45936</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>483</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B5" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>485</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45936</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>483</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B6" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>485</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45936</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>483</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B7" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45936</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>483</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B8" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>485</v>
+      </c>
+      <c r="F8" s="1">
+        <v>45936</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>483</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B9" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>485</v>
+      </c>
+      <c r="F9" s="1">
+        <v>45936</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>483</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B10" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>485</v>
+      </c>
+      <c r="F10" s="1">
+        <v>45936</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>483</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B11" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>485</v>
+      </c>
+      <c r="F11" s="1">
+        <v>45936</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>483</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B12" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>485</v>
+      </c>
+      <c r="F12" s="1">
+        <v>45936</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>483</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B13" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>485</v>
+      </c>
+      <c r="F13" s="1">
+        <v>45936</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>483</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B14" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>47</v>
+        <v>486</v>
+      </c>
+      <c r="E14" t="s">
+        <v>487</v>
+      </c>
+      <c r="F14" s="1">
+        <v>45937</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>483</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B15" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>485</v>
+      </c>
+      <c r="F15" s="1">
+        <v>45937</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>483</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B16" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>485</v>
+      </c>
+      <c r="F16" s="1">
+        <v>45937</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>483</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B17" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>485</v>
+      </c>
+      <c r="F17" s="1">
+        <v>45937</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>483</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B18" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>485</v>
+      </c>
+      <c r="F18" s="1">
+        <v>45937</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>483</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B19" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B20" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B21" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B22" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B23" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B24" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B25" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="H25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B26" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="H26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B27" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="H27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B28" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="E28" t="s">
+        <v>485</v>
+      </c>
+      <c r="F28" s="1">
+        <v>45937</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>483</v>
       </c>
       <c r="H28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B29" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="H29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B30" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="H30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B31" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G31" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="H31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B32" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G32" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="H32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B33" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="H33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B34" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="H34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B35" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G35" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B36" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="H36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B37" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="H37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B38" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G38" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="H38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B39" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="H39" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B40" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="H40" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B41" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G41" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="H41" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B42" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G42" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="H42" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B43" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G43" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="H43" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B44" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G44" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="H44" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B45" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G45" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B46" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G46" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="H46" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B47" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G47" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="H47" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B48" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G48" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B49" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G49" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B50" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G50" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B51" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G51" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B52" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G52" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B53" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G53" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="H53" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B54" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G54" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="H54" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B55" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G55" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B56" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G56" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="H56" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B57" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G57" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B58" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G58" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B59" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G59" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B60" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G60" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B61" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G61" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B62" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G62" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="H62" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B63" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G63" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="H63" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B64" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G64" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="H64" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B65" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G65" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="H65" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B66" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G66" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="H66" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B67" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G67" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="H67" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B68" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G68" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="H68" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B69" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G69" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="H69" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B70" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G70" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="H70" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B71" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G71" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="H71" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B72" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G72" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="H72" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B73" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G73" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="H73" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B74" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G74" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="H74" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B75" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G75" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="H75" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B76" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G76" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="H76" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B77" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G77" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="H77" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B78" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G78" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="H78" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B79" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G79" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="H79" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B80" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="G80" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="H80" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B81" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G81" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="H81" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B82" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G82" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="H82" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B83" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G83" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="H83" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B84" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G84" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="H84" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B85" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G85" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="H85" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B86" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G86" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="H86" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B87" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G87" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="H87" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B88" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G88" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="H88" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B89" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G89" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="H89" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B90" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G90" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="H90" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B91" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G91" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="H91" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B92" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G92" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="H92" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B93" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G93" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="H93" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B94" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G94" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="H94" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B95" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G95" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="H95" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B96" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G96" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="H96" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B97" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G97" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="H97" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B98" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="G98" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="H98" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B99" t="s">
-        <v>390</v>
+        <v>356</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G99" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="H99" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B100" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G100" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="H100" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B101" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G101" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="H101" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B102" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G102" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="H102" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B103" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G103" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="H103" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B104" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="G104" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="H104" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B105" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G105" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="H105" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B106" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G106" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="H106" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B107" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G107" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="H107" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B108" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G108" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="H108" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B109" t="s">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G109" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="H109" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B110" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G110" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="H110" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B111" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G111" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="H111" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B112" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="G112" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="H112" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B113" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G113" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="H113" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B114" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G114" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="H114" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B115" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G115" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="H115" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B116" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G116" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="H116" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B117" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G117" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="H117" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B118" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G118" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="H118" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B119" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G119" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="H119" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B120" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G120" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="H120" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B121" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="G121" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="H121" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B122" t="s">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G122" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="H122" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B123" t="s">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G123" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="H123" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B124" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G124" t="s">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="H124" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B125" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G125" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="H125" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B126" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G126" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="H126" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B127" t="s">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G127" t="s">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="H127" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B128" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G128" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="H128" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B129" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G129" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="H129" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B130" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G130" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="H130" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B131" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G131" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="H131" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B132" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="G132" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="H132" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B133" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="G133" t="s">
-        <v>31</v>
+        <v>162</v>
       </c>
       <c r="H133" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B134" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G134" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="H134" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B135" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G135" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="H135" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B136" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G136" t="s">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="H136" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B137" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="G137" t="s">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="H137" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B138" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="C138" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D138" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D138" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="G138" t="s">
-        <v>31</v>
-      </c>
       <c r="H138" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B139" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="G139" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="H139" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B140" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G140" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="H140" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B141" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="G141" t="s">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="H141" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B142" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="G142" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="H142" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B143" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="G143" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="H143" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B144" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="G144" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="H144" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B145" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G145" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="H145" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B146" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="G146" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="H146" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B147" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G147" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="H147" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="16" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B148" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G148" t="s">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="H148" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B149" t="s">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="G149" t="s">
-        <v>31</v>
+        <v>184</v>
       </c>
       <c r="H149" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B150" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="G150" t="s">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="H150" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B151" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="G151" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="H151" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B152" t="s">
-        <v>443</v>
+        <v>409</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="G152" t="s">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="H152" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B153" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="G153" t="s">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="H153" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B154" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="G154" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="H154" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B155" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="G155" t="s">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="H155" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B156" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="G156" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="H156" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B157" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G157" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="H157" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B158" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G158" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="H158" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B159" t="s">
-        <v>450</v>
+        <v>416</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="G159" t="s">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="H159" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B160" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="G160" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="H160" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B161" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G161" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="H161" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B162" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G162" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="H162" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B163" t="s">
-        <v>454</v>
+        <v>420</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="G163" t="s">
-        <v>31</v>
+        <v>198</v>
       </c>
       <c r="H163" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B164" t="s">
-        <v>455</v>
+        <v>421</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
+      </c>
+      <c r="E164" t="s">
+        <v>485</v>
+      </c>
+      <c r="F164" s="1">
+        <v>45937</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H164" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B165" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
+      </c>
+      <c r="E165" t="s">
+        <v>485</v>
+      </c>
+      <c r="F165" s="1">
+        <v>45937</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H165" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B166" t="s">
-        <v>457</v>
+        <v>423</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
+      </c>
+      <c r="E166" t="s">
+        <v>485</v>
+      </c>
+      <c r="F166" s="1">
+        <v>45937</v>
       </c>
       <c r="G166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H166" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B167" t="s">
-        <v>458</v>
+        <v>424</v>
       </c>
       <c r="C167" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D167" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D167" s="8" t="s">
-        <v>207</v>
+      <c r="E167" t="s">
+        <v>485</v>
+      </c>
+      <c r="F167" s="1">
+        <v>45937</v>
       </c>
       <c r="G167" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H167" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B168" t="s">
-        <v>459</v>
+        <v>425</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
+      </c>
+      <c r="E168" t="s">
+        <v>485</v>
+      </c>
+      <c r="F168" s="1">
+        <v>45937</v>
       </c>
       <c r="G168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H168" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B169" t="s">
-        <v>460</v>
+        <v>426</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
+      </c>
+      <c r="E169" t="s">
+        <v>485</v>
+      </c>
+      <c r="F169" s="1">
+        <v>45937</v>
       </c>
       <c r="G169" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H169" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B170" t="s">
-        <v>461</v>
+        <v>427</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
+      </c>
+      <c r="E170" t="s">
+        <v>485</v>
+      </c>
+      <c r="F170" s="1">
+        <v>45937</v>
       </c>
       <c r="G170" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H170" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B171" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
+      </c>
+      <c r="E171" t="s">
+        <v>485</v>
+      </c>
+      <c r="F171" s="1">
+        <v>45937</v>
       </c>
       <c r="G171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H171" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B172" t="s">
-        <v>463</v>
+        <v>429</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G172" t="s">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="H172" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B173" t="s">
-        <v>464</v>
+        <v>430</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="E173" t="s">
+        <v>485</v>
+      </c>
+      <c r="F173" s="1">
+        <v>45937</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H173" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B174" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
+      </c>
+      <c r="E174" t="s">
+        <v>485</v>
+      </c>
+      <c r="F174" s="1">
+        <v>45937</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H174" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B175" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="G175" t="s">
-        <v>31</v>
+        <v>211</v>
       </c>
       <c r="H175" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B176" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G176" t="s">
-        <v>31</v>
+        <v>212</v>
       </c>
       <c r="H176" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B177" t="s">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="G177" t="s">
-        <v>31</v>
+        <v>213</v>
       </c>
       <c r="H177" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B178" t="s">
-        <v>469</v>
+        <v>435</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G178" t="s">
-        <v>31</v>
+        <v>214</v>
       </c>
       <c r="H178" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B179" t="s">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
+      </c>
+      <c r="E179" t="s">
+        <v>485</v>
+      </c>
+      <c r="F179" s="1">
+        <v>45937</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H179" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B180" t="s">
-        <v>471</v>
+        <v>437</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
+      </c>
+      <c r="E180" t="s">
+        <v>485</v>
+      </c>
+      <c r="F180" s="1">
+        <v>45937</v>
       </c>
       <c r="G180" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H180" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B181" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
+      </c>
+      <c r="E181" t="s">
+        <v>485</v>
+      </c>
+      <c r="F181" s="1">
+        <v>45937</v>
       </c>
       <c r="G181" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H181" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B182" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
+      </c>
+      <c r="E182" t="s">
+        <v>485</v>
+      </c>
+      <c r="F182" s="1">
+        <v>45937</v>
       </c>
       <c r="G182" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H182" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B183" t="s">
-        <v>474</v>
+        <v>440</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="G183" t="s">
-        <v>31</v>
+        <v>219</v>
       </c>
       <c r="H183" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B184" t="s">
-        <v>475</v>
+        <v>441</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="G184" t="s">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="H184" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B185" t="s">
-        <v>476</v>
+        <v>442</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="G185" t="s">
-        <v>31</v>
+        <v>221</v>
       </c>
       <c r="H185" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B186" t="s">
-        <v>477</v>
+        <v>443</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="G186" t="s">
-        <v>31</v>
+        <v>222</v>
       </c>
       <c r="H186" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B187" t="s">
-        <v>478</v>
+        <v>444</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="G187" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="H187" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="16" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B188" t="s">
-        <v>479</v>
+        <v>445</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G188" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="H188" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B189" t="s">
-        <v>480</v>
+        <v>446</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="G189" t="s">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="H189" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B190" t="s">
-        <v>481</v>
+        <v>447</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="G190" t="s">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="H190" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B191" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="G191" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="H191" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B192" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="G192" t="s">
-        <v>31</v>
+        <v>228</v>
       </c>
       <c r="H192" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B193" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="G193" t="s">
-        <v>31</v>
+        <v>229</v>
       </c>
       <c r="H193" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B194" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="G194" t="s">
-        <v>31</v>
+        <v>230</v>
       </c>
       <c r="H194" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B195" t="s">
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="G195" t="s">
-        <v>31</v>
+        <v>231</v>
       </c>
       <c r="H195" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B196" t="s">
-        <v>487</v>
+        <v>453</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="G196" t="s">
-        <v>31</v>
+        <v>232</v>
       </c>
       <c r="H196" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="16" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B197" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="G197" t="s">
-        <v>31</v>
+        <v>233</v>
       </c>
       <c r="H197" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B198" t="s">
-        <v>489</v>
+        <v>455</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="G198" t="s">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c r="H198" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B199" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="G199" t="s">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="H199" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B200" t="s">
-        <v>491</v>
+        <v>457</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="G200" t="s">
-        <v>31</v>
+        <v>236</v>
       </c>
       <c r="H200" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B201" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="G201" t="s">
-        <v>31</v>
+        <v>237</v>
       </c>
       <c r="H201" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B202" t="s">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="G202" t="s">
-        <v>31</v>
+        <v>238</v>
       </c>
       <c r="H202" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B203" t="s">
-        <v>494</v>
+        <v>460</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="G203" t="s">
-        <v>31</v>
+        <v>239</v>
       </c>
       <c r="H203" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B204" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="G204" t="s">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="H204" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B205" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="G205" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
       <c r="H205" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B206" t="s">
-        <v>497</v>
+        <v>463</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="G206" t="s">
-        <v>31</v>
+        <v>242</v>
       </c>
       <c r="H206" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B207" t="s">
-        <v>498</v>
+        <v>464</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G207" t="s">
-        <v>31</v>
+        <v>243</v>
       </c>
       <c r="H207" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B208" t="s">
-        <v>499</v>
+        <v>465</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="G208" t="s">
-        <v>31</v>
+        <v>244</v>
       </c>
       <c r="H208" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B209" t="s">
-        <v>500</v>
+        <v>466</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="G209" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="H209" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B210" t="s">
-        <v>501</v>
+        <v>467</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="G210" t="s">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="H210" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B211" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="G211" t="s">
-        <v>31</v>
+        <v>247</v>
       </c>
       <c r="H211" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B212" t="s">
-        <v>503</v>
+        <v>469</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="G212" t="s">
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="H212" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B213" t="s">
-        <v>504</v>
+        <v>470</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="G213" t="s">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="H213" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B214" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="G214" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="H214" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B215" t="s">
-        <v>506</v>
+        <v>472</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="G215" t="s">
-        <v>31</v>
+        <v>251</v>
       </c>
       <c r="H215" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B216" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="G216" t="s">
-        <v>31</v>
+        <v>252</v>
       </c>
       <c r="H216" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B217" t="s">
-        <v>508</v>
+        <v>474</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="G217" t="s">
-        <v>31</v>
+        <v>253</v>
       </c>
       <c r="H217" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B218" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="G218" t="s">
-        <v>31</v>
+        <v>254</v>
       </c>
       <c r="H218" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B219" t="s">
-        <v>510</v>
+        <v>476</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="G219" t="s">
-        <v>31</v>
+        <v>255</v>
       </c>
       <c r="H219" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B220" t="s">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="G220" t="s">
-        <v>31</v>
+        <v>256</v>
       </c>
       <c r="H220" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="B221" t="s">
-        <v>512</v>
+        <v>478</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="G221" t="s">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="H221" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>542</v>
-      </c>
-      <c r="B222" t="s">
-        <v>513</v>
-      </c>
-      <c r="C222" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D222" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="G222" t="s">
-        <v>31</v>
-      </c>
-      <c r="H222" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A223" t="s">
-        <v>542</v>
-      </c>
-      <c r="B223" t="s">
-        <v>514</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D223" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="G223" t="s">
-        <v>31</v>
-      </c>
-      <c r="H223" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A224" t="s">
-        <v>542</v>
-      </c>
-      <c r="B224" t="s">
-        <v>515</v>
-      </c>
-      <c r="C224" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D224" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="G224" t="s">
-        <v>31</v>
-      </c>
-      <c r="H224" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A225" t="s">
-        <v>542</v>
-      </c>
-      <c r="B225" t="s">
-        <v>516</v>
-      </c>
-      <c r="C225" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D225" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G225" t="s">
-        <v>31</v>
-      </c>
-      <c r="H225" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
-        <v>542</v>
-      </c>
-      <c r="B226" t="s">
-        <v>517</v>
-      </c>
-      <c r="C226" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D226" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G226" t="s">
-        <v>31</v>
-      </c>
-      <c r="H226" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A227" t="s">
-        <v>542</v>
-      </c>
-      <c r="B227" t="s">
-        <v>518</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D227" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="G227" t="s">
-        <v>31</v>
-      </c>
-      <c r="H227" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A228" t="s">
-        <v>542</v>
-      </c>
-      <c r="B228" t="s">
-        <v>519</v>
-      </c>
-      <c r="C228" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D228" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="G228" t="s">
-        <v>31</v>
-      </c>
-      <c r="H228" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A229" t="s">
-        <v>542</v>
-      </c>
-      <c r="B229" t="s">
-        <v>520</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D229" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="G229" t="s">
-        <v>31</v>
-      </c>
-      <c r="H229" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
-        <v>542</v>
-      </c>
-      <c r="B230" t="s">
-        <v>521</v>
-      </c>
-      <c r="C230" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D230" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="G230" t="s">
-        <v>31</v>
-      </c>
-      <c r="H230" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A231" t="s">
-        <v>542</v>
-      </c>
-      <c r="B231" t="s">
-        <v>522</v>
-      </c>
-      <c r="C231" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D231" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G231" t="s">
-        <v>31</v>
-      </c>
-      <c r="H231" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A232" t="s">
-        <v>542</v>
-      </c>
-      <c r="B232" t="s">
-        <v>523</v>
-      </c>
-      <c r="C232" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D232" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="G232" t="s">
-        <v>31</v>
-      </c>
-      <c r="H232" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A233" t="s">
-        <v>542</v>
-      </c>
-      <c r="B233" t="s">
-        <v>524</v>
-      </c>
-      <c r="C233" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D233" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="G233" t="s">
-        <v>31</v>
-      </c>
-      <c r="H233" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
-        <v>542</v>
-      </c>
-      <c r="B234" t="s">
-        <v>525</v>
-      </c>
-      <c r="C234" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D234" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="G234" t="s">
-        <v>31</v>
-      </c>
-      <c r="H234" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
-        <v>542</v>
-      </c>
-      <c r="B235" t="s">
-        <v>526</v>
-      </c>
-      <c r="C235" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D235" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="G235" t="s">
-        <v>31</v>
-      </c>
-      <c r="H235" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
-        <v>542</v>
-      </c>
-      <c r="B236" t="s">
-        <v>527</v>
-      </c>
-      <c r="C236" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D236" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="G236" t="s">
-        <v>31</v>
-      </c>
-      <c r="H236" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
-        <v>542</v>
-      </c>
-      <c r="B237" t="s">
-        <v>528</v>
-      </c>
-      <c r="C237" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D237" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="G237" t="s">
-        <v>31</v>
-      </c>
-      <c r="H237" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
-        <v>542</v>
-      </c>
-      <c r="B238" t="s">
-        <v>529</v>
-      </c>
-      <c r="C238" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D238" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="G238" t="s">
-        <v>31</v>
-      </c>
-      <c r="H238" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A239" t="s">
-        <v>542</v>
-      </c>
-      <c r="B239" t="s">
-        <v>530</v>
-      </c>
-      <c r="C239" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D239" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="G239" t="s">
-        <v>31</v>
-      </c>
-      <c r="H239" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A240" t="s">
-        <v>542</v>
-      </c>
-      <c r="B240" t="s">
-        <v>531</v>
-      </c>
-      <c r="C240" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D240" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="G240" t="s">
-        <v>31</v>
-      </c>
-      <c r="H240" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A241" t="s">
-        <v>542</v>
-      </c>
-      <c r="B241" t="s">
-        <v>532</v>
-      </c>
-      <c r="C241" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D241" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="G241" t="s">
-        <v>31</v>
-      </c>
-      <c r="H241" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A242" t="s">
-        <v>542</v>
-      </c>
-      <c r="B242" t="s">
-        <v>533</v>
-      </c>
-      <c r="C242" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D242" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="G242" t="s">
-        <v>31</v>
-      </c>
-      <c r="H242" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A243" t="s">
-        <v>542</v>
-      </c>
-      <c r="B243" t="s">
-        <v>534</v>
-      </c>
-      <c r="C243" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D243" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="G243" t="s">
-        <v>31</v>
-      </c>
-      <c r="H243" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A244" t="s">
-        <v>542</v>
-      </c>
-      <c r="B244" t="s">
-        <v>535</v>
-      </c>
-      <c r="C244" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D244" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="G244" t="s">
-        <v>31</v>
-      </c>
-      <c r="H244" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A245" t="s">
-        <v>542</v>
-      </c>
-      <c r="B245" t="s">
-        <v>536</v>
-      </c>
-      <c r="C245" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D245" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="G245" t="s">
-        <v>31</v>
-      </c>
-      <c r="H245" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A246" t="s">
-        <v>542</v>
-      </c>
-      <c r="B246" t="s">
-        <v>537</v>
-      </c>
-      <c r="C246" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D246" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="G246" t="s">
-        <v>31</v>
-      </c>
-      <c r="H246" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A247" t="s">
-        <v>542</v>
-      </c>
-      <c r="B247" t="s">
-        <v>538</v>
-      </c>
-      <c r="C247" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D247" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="G247" t="s">
-        <v>31</v>
-      </c>
-      <c r="H247" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A248" t="s">
-        <v>542</v>
-      </c>
-      <c r="B248" t="s">
-        <v>539</v>
-      </c>
-      <c r="C248" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D248" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="G248" t="s">
-        <v>31</v>
-      </c>
-      <c r="H248" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A249" t="s">
-        <v>542</v>
-      </c>
-      <c r="B249" t="s">
-        <v>540</v>
-      </c>
-      <c r="C249" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D249" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="G249" t="s">
-        <v>31</v>
-      </c>
-      <c r="H249" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A250" t="s">
-        <v>542</v>
-      </c>
-      <c r="B250" t="s">
-        <v>541</v>
-      </c>
-      <c r="C250" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D250" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="G250" t="s">
-        <v>31</v>
-      </c>
-      <c r="H250" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A251" t="s">
-        <v>543</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I222" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D1 E1:I1 A1:B1" numberStoredAsText="1"/>
+    <ignoredError sqref="D1 E1 B1 G1:I1" numberStoredAsText="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -9507,12 +8415,12 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.83203125" customWidth="1"/>
     <col min="4" max="4" width="56.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.9140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.9140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.9140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.08203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.08203125" bestFit="1" customWidth="1"/>
@@ -9524,59 +8432,122 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>548</v>
+        <v>484</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>542</v>
+        <v>479</v>
+      </c>
+      <c r="B2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" t="s">
+        <v>492</v>
+      </c>
+      <c r="I2" t="s">
+        <v>483</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="K2" s="1">
+        <v>45937</v>
+      </c>
+      <c r="L2" s="11"/>
+      <c r="M2" t="s">
+        <v>493</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>543</v>
-      </c>
+      <c r="G3" s="5"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G4" s="5"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G5" s="5"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G6" s="5"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G7" s="5"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:F1 H1:N1" numberStoredAsText="1"/>
   </ignoredErrors>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>